--- a/storage/app/export/product-translates.xlsx
+++ b/storage/app/export/product-translates.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>product_id</t>
   </si>
@@ -50,28 +50,49 @@
     <t>meta_keywords</t>
   </si>
   <si>
-    <t>Amari Toy</t>
-  </si>
-  <si>
-    <t>Magnam aut illum facere. Non odit voluptas quaerat odio. Aspernatur non animi autem praesentium est. Dolorem ipsa et perferendis et.</t>
-  </si>
-  <si>
-    <t>Caterpillar sternly. 'Explain yourself!' 'I can't remember things as I used--and I don't remember where.' 'Well, it must make me smaller, I suppose.' So she called softly after it, and fortunately.</t>
-  </si>
-  <si>
-    <t>unde-fuga-quo-voluptatum-delectus</t>
-  </si>
-  <si>
-    <t>Sabrina Balistreri Jr.</t>
-  </si>
-  <si>
-    <t>Praesentium sunt aut quo eligendi molestiae. Et qui minima accusamus odio. Omnis adipisci deleniti natus veritatis odit sapiente delectus.</t>
-  </si>
-  <si>
-    <t>But there seemed to be an old Crab took the thimble, looking as solemn as she went to school every day--' 'I'VE been to her, one on each side, and opened their eyes and mouths so VERY tired of.</t>
-  </si>
-  <si>
-    <t>architecto-laborum-temporibus-omnis-eum</t>
+    <t>Ian Dietrich</t>
+  </si>
+  <si>
+    <t>Totam natus nisi ducimus vel ut et occaecati. Ducimus sed maxime est temporibus qui. Iste reiciendis libero eos culpa ea et officia.</t>
+  </si>
+  <si>
+    <t>She felt that it was only a mouse that had a wink of sleep these three weeks!' 'I'm very sorry you've been annoyed,' said Alice, (she had kept a piece of rudeness was more than Alice could not think.</t>
+  </si>
+  <si>
+    <t>aaaaa</t>
+  </si>
+  <si>
+    <t>sit-cumque-molestiae-tenetur-sequi-illo</t>
+  </si>
+  <si>
+    <t>Mrs. Florida Kreiger</t>
+  </si>
+  <si>
+    <t>Dr. Cleora Maggio DDS</t>
+  </si>
+  <si>
+    <t>Elyse Murphy</t>
+  </si>
+  <si>
+    <t>kkkk</t>
+  </si>
+  <si>
+    <t>kotosh</t>
+  </si>
+  <si>
+    <t>ghghg</t>
+  </si>
+  <si>
+    <t>jjj</t>
+  </si>
+  <si>
+    <t>Kennedy Shanahan</t>
+  </si>
+  <si>
+    <t>Glennie Labadie</t>
+  </si>
+  <si>
+    <t>Kyra Fisher</t>
   </si>
 </sst>
 </file>
@@ -417,14 +438,14 @@
   <cols>
     <col min="1" max="1" width="12" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="26" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="163" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="233" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="15" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="156" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="235" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="11" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="47" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="24" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="25" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="16" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -479,8 +500,20 @@
       <c r="E2" t="s">
         <v>13</v>
       </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -491,16 +524,25 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
